--- a/medicine/Sexualité et sexologie/Andrea_Dworkin/Andrea_Dworkin.xlsx
+++ b/medicine/Sexualité et sexologie/Andrea_Dworkin/Andrea_Dworkin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrea Dworkin, née le 26 septembre 1946 à Camden et morte le 9 avril 2005 à Washington, est une essayiste américaine, théoricienne du féminisme radical. Elle est surtout connue pour sa critique de la pornographie, qu'elle rapprochait du viol et autres formes de violence contre les femmes.
 Militante anti-guerre et proche de certains milieux anarchistes à la fin des années 1960, Dworkin a écrit plus d'une dizaine de livres sur la théorie et la pratique du féminisme radical. Pendant la fin des années 1970 et les années 1980, elle a gagné une renommée nationale comme porte-parole du mouvement féministe anti-pornographie, et pour ses écrits sur la pornographie et la sexualité, particulièrement Pornography: Men Possessing Women (1979) et Intercourse (1987) qui restent ses deux ouvrages les plus connus.
@@ -515,12 +527,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et éducation
-Née en 1946 à Camden, dans le New Jersey, Andrea Dworkin est la fille d'Harry Dworkin, petit-fils d'un russe juif qui a fui la Russie à l'âge de 15 ans afin d'échapper au service militaire, et de Sylvia Spiegel, fille d'immigrés juifs hongrois. Son petit frère, Mark, né en 1949, est devenu un biologiste spécialisé dans l'étude des cellules cancéreuses avant de mourir le 30 avril 1992 d'un cancer[1]. Pratiquant avec ferveur le judaïsme, sa famille proche était aussi particulièrement engagée dans le soutien à l'État d’Israël ; Dworkin raconte ainsi que « tout le reste de ma famille est, je dirais, sioniste fanatique »[2]. Dworkin explique que c'est de son père, un instituteur socialiste, qu'elle tient sa passion de la justice sociale. Malgré les relations tendues avec sa mère, Dworkin écrit dans un de ses ouvrages que la foi de sa mère dans le contrôle des naissances et dans l'avortement, « longtemps avant que ce ne soit des opinions respectables », a inspiré son futur militantisme[D 1].
-Bien qu'elle ait décrit sa famille comme étant à bien des égards dominée par le souvenir de la Shoah, elle lui a néanmoins offert une enfance heureuse, jusqu'à l'âge de neuf ans, lorsqu'un homme inconnu l'a agressée sexuellement dans une salle de cinéma[3]. Alors qu'elle avait 10 ans, la famille Dworkin a déménagé à Cherry Hill, une ville de banlieue du New Jersey, ce qu'elle a plus tard comparé à un enlèvement par des extraterrestres et un enfermement dans une colonie pénitentiaire[D 2]. En sixième, l'administration de sa nouvelle école l'a punie pour avoir refusé de chanter Silent Night (étant juive, elle a protesté contre le fait d'être forcée de chanter un chant chrétien à l'école)[D 3].
+          <t>Jeunesse et éducation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1946 à Camden, dans le New Jersey, Andrea Dworkin est la fille d'Harry Dworkin, petit-fils d'un russe juif qui a fui la Russie à l'âge de 15 ans afin d'échapper au service militaire, et de Sylvia Spiegel, fille d'immigrés juifs hongrois. Son petit frère, Mark, né en 1949, est devenu un biologiste spécialisé dans l'étude des cellules cancéreuses avant de mourir le 30 avril 1992 d'un cancer. Pratiquant avec ferveur le judaïsme, sa famille proche était aussi particulièrement engagée dans le soutien à l'État d’Israël ; Dworkin raconte ainsi que « tout le reste de ma famille est, je dirais, sioniste fanatique ». Dworkin explique que c'est de son père, un instituteur socialiste, qu'elle tient sa passion de la justice sociale. Malgré les relations tendues avec sa mère, Dworkin écrit dans un de ses ouvrages que la foi de sa mère dans le contrôle des naissances et dans l'avortement, « longtemps avant que ce ne soit des opinions respectables », a inspiré son futur militantisme[D 1].
+Bien qu'elle ait décrit sa famille comme étant à bien des égards dominée par le souvenir de la Shoah, elle lui a néanmoins offert une enfance heureuse, jusqu'à l'âge de neuf ans, lorsqu'un homme inconnu l'a agressée sexuellement dans une salle de cinéma. Alors qu'elle avait 10 ans, la famille Dworkin a déménagé à Cherry Hill, une ville de banlieue du New Jersey, ce qu'elle a plus tard comparé à un enlèvement par des extraterrestres et un enfermement dans une colonie pénitentiaire[D 2]. En sixième, l'administration de sa nouvelle école l'a punie pour avoir refusé de chanter Silent Night (étant juive, elle a protesté contre le fait d'être forcée de chanter un chant chrétien à l'école)[D 3].
 C'est d'ailleurs dès la sixième que Dworkin a commencé à écrire de la poésie et de la fiction, une activité qu'elle poursuivra durant toutes ses années au lycée avec le soutien de ses parents. Elle explique avoir été particulièrement influencée par Arthur Rimbaud, Charles Baudelaire, Henry Miller, Dostoïevski, Che Guevara et par les poètes de la Beat Generation tout particulièrement Allen Ginsberg[D 4],[D 5].
-Université et premiers engagements
-Étudiante au Bennington College, elle manifeste, en 1965, contre la guerre du Viêt Nam à la mission des États-Unis aux Nations unies. Arrêtée et envoyée à la New York Women's House of Detention, une prison pour femmes de New York, elle affirme que les médecins de la prison lui ont infligé un toucher vaginal si violent qu'elle saignait encore plusieurs jours après l'examen. Son témoignage devant le grand jury est relayé par des médias, nationaux et internationaux[D 6],[4]. Le grand jury refuse de prononcer des inculpations mais la déposition de Dworkin attire l'attention du public sur les mauvais traitements infligés aux détenues et a contribué à la fermeture de la prison quelques années plus tard[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Andrea_Dworkin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andrea_Dworkin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Université et premiers engagements</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étudiante au Bennington College, elle manifeste, en 1965, contre la guerre du Viêt Nam à la mission des États-Unis aux Nations unies. Arrêtée et envoyée à la New York Women's House of Detention, une prison pour femmes de New York, elle affirme que les médecins de la prison lui ont infligé un toucher vaginal si violent qu'elle saignait encore plusieurs jours après l'examen. Son témoignage devant le grand jury est relayé par des médias, nationaux et internationaux[D 6],. Le grand jury refuse de prononcer des inculpations mais la déposition de Dworkin attire l'attention du public sur les mauvais traitements infligés aux détenues et a contribué à la fermeture de la prison quelques années plus tard.
 </t>
         </is>
       </c>
